--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4269"/>
+  <dimension ref="A1:D4272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60147,10 +60147,52 @@
         <v>4494</v>
       </c>
       <c r="C4269">
-        <v>8</v>
+        <v>7.89</v>
       </c>
       <c r="D4269" s="2">
         <v>44777</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:4">
+      <c r="A4270" s="1">
+        <v>4268</v>
+      </c>
+      <c r="B4270">
+        <v>4495</v>
+      </c>
+      <c r="C4270">
+        <v>7.98</v>
+      </c>
+      <c r="D4270" s="2">
+        <v>44778</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:4">
+      <c r="A4271" s="1">
+        <v>4269</v>
+      </c>
+      <c r="B4271">
+        <v>4496</v>
+      </c>
+      <c r="C4271">
+        <v>7.9</v>
+      </c>
+      <c r="D4271" s="2">
+        <v>44781</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:4">
+      <c r="A4272" s="1">
+        <v>4270</v>
+      </c>
+      <c r="B4272">
+        <v>4497</v>
+      </c>
+      <c r="C4272">
+        <v>7.91</v>
+      </c>
+      <c r="D4272" s="2">
+        <v>44782</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4272"/>
+  <dimension ref="A1:D4273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60195,6 +60195,20 @@
         <v>44782</v>
       </c>
     </row>
+    <row r="4273" spans="1:4">
+      <c r="A4273" s="1">
+        <v>4271</v>
+      </c>
+      <c r="B4273">
+        <v>4498</v>
+      </c>
+      <c r="C4273">
+        <v>7.83</v>
+      </c>
+      <c r="D4273" s="2">
+        <v>44783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4273"/>
+  <dimension ref="A1:D4274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60209,6 +60209,20 @@
         <v>44783</v>
       </c>
     </row>
+    <row r="4274" spans="1:4">
+      <c r="A4274" s="1">
+        <v>4272</v>
+      </c>
+      <c r="B4274">
+        <v>4499</v>
+      </c>
+      <c r="C4274">
+        <v>7.86</v>
+      </c>
+      <c r="D4274" s="2">
+        <v>44784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4274"/>
+  <dimension ref="A1:D4275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60223,6 +60223,20 @@
         <v>44784</v>
       </c>
     </row>
+    <row r="4275" spans="1:4">
+      <c r="A4275" s="1">
+        <v>4273</v>
+      </c>
+      <c r="B4275">
+        <v>4500</v>
+      </c>
+      <c r="C4275">
+        <v>7.82</v>
+      </c>
+      <c r="D4275" s="2">
+        <v>44785</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4275"/>
+  <dimension ref="A1:D4278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60237,6 +60237,48 @@
         <v>44785</v>
       </c>
     </row>
+    <row r="4276" spans="1:4">
+      <c r="A4276" s="1">
+        <v>4274</v>
+      </c>
+      <c r="B4276">
+        <v>4501</v>
+      </c>
+      <c r="C4276">
+        <v>7.74</v>
+      </c>
+      <c r="D4276" s="2">
+        <v>44788</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:4">
+      <c r="A4277" s="1">
+        <v>4275</v>
+      </c>
+      <c r="B4277">
+        <v>4502</v>
+      </c>
+      <c r="C4277">
+        <v>7.75</v>
+      </c>
+      <c r="D4277" s="2">
+        <v>44789</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:4">
+      <c r="A4278" s="1">
+        <v>4276</v>
+      </c>
+      <c r="B4278">
+        <v>4503</v>
+      </c>
+      <c r="C4278">
+        <v>7.8</v>
+      </c>
+      <c r="D4278" s="2">
+        <v>44790</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4278"/>
+  <dimension ref="A1:D4279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60279,6 +60279,20 @@
         <v>44790</v>
       </c>
     </row>
+    <row r="4279" spans="1:4">
+      <c r="A4279" s="1">
+        <v>4277</v>
+      </c>
+      <c r="B4279">
+        <v>4504</v>
+      </c>
+      <c r="C4279">
+        <v>7.81</v>
+      </c>
+      <c r="D4279" s="2">
+        <v>44791</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4279"/>
+  <dimension ref="A1:D4280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60287,10 +60287,24 @@
         <v>4504</v>
       </c>
       <c r="C4279">
-        <v>7.81</v>
+        <v>7.79</v>
       </c>
       <c r="D4279" s="2">
         <v>44791</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:4">
+      <c r="A4280" s="1">
+        <v>4278</v>
+      </c>
+      <c r="B4280">
+        <v>4505</v>
+      </c>
+      <c r="C4280">
+        <v>7.87</v>
+      </c>
+      <c r="D4280" s="2">
+        <v>44792</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4280"/>
+  <dimension ref="A1:D4282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60307,6 +60307,34 @@
         <v>44792</v>
       </c>
     </row>
+    <row r="4281" spans="1:4">
+      <c r="A4281" s="1">
+        <v>4279</v>
+      </c>
+      <c r="B4281">
+        <v>4506</v>
+      </c>
+      <c r="C4281">
+        <v>7.98</v>
+      </c>
+      <c r="D4281" s="2">
+        <v>44795</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:4">
+      <c r="A4282" s="1">
+        <v>4280</v>
+      </c>
+      <c r="B4282">
+        <v>4507</v>
+      </c>
+      <c r="C4282">
+        <v>7.98</v>
+      </c>
+      <c r="D4282" s="2">
+        <v>44796</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4282"/>
+  <dimension ref="A1:D4283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60335,6 +60335,20 @@
         <v>44796</v>
       </c>
     </row>
+    <row r="4283" spans="1:4">
+      <c r="A4283" s="1">
+        <v>4281</v>
+      </c>
+      <c r="B4283">
+        <v>4508</v>
+      </c>
+      <c r="C4283">
+        <v>8.01</v>
+      </c>
+      <c r="D4283" s="2">
+        <v>44797</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4283"/>
+  <dimension ref="A1:D4285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60349,6 +60349,34 @@
         <v>44797</v>
       </c>
     </row>
+    <row r="4284" spans="1:4">
+      <c r="A4284" s="1">
+        <v>4282</v>
+      </c>
+      <c r="B4284">
+        <v>4509</v>
+      </c>
+      <c r="C4284">
+        <v>7.94</v>
+      </c>
+      <c r="D4284" s="2">
+        <v>44798</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:4">
+      <c r="A4285" s="1">
+        <v>4283</v>
+      </c>
+      <c r="B4285">
+        <v>4510</v>
+      </c>
+      <c r="C4285">
+        <v>7.96</v>
+      </c>
+      <c r="D4285" s="2">
+        <v>44799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4285"/>
+  <dimension ref="A1:D4287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60377,6 +60377,34 @@
         <v>44799</v>
       </c>
     </row>
+    <row r="4286" spans="1:4">
+      <c r="A4286" s="1">
+        <v>4284</v>
+      </c>
+      <c r="B4286">
+        <v>4511</v>
+      </c>
+      <c r="C4286">
+        <v>7.99</v>
+      </c>
+      <c r="D4286" s="2">
+        <v>44802</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:4">
+      <c r="A4287" s="1">
+        <v>4285</v>
+      </c>
+      <c r="B4287">
+        <v>4513</v>
+      </c>
+      <c r="C4287">
+        <v>7.98</v>
+      </c>
+      <c r="D4287" s="2">
+        <v>44804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4287"/>
+  <dimension ref="A1:D4289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60405,6 +60405,34 @@
         <v>44804</v>
       </c>
     </row>
+    <row r="4288" spans="1:4">
+      <c r="A4288" s="1">
+        <v>4286</v>
+      </c>
+      <c r="B4288">
+        <v>4514</v>
+      </c>
+      <c r="C4288">
+        <v>8.15</v>
+      </c>
+      <c r="D4288" s="2">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:4">
+      <c r="A4289" s="1">
+        <v>4287</v>
+      </c>
+      <c r="B4289">
+        <v>4515</v>
+      </c>
+      <c r="C4289">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="D4289" s="2">
+        <v>44806</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4289"/>
+  <dimension ref="A1:D4291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60433,6 +60433,34 @@
         <v>44806</v>
       </c>
     </row>
+    <row r="4290" spans="1:4">
+      <c r="A4290" s="1">
+        <v>4288</v>
+      </c>
+      <c r="B4290">
+        <v>4516</v>
+      </c>
+      <c r="C4290">
+        <v>8.16</v>
+      </c>
+      <c r="D4290" s="2">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:4">
+      <c r="A4291" s="1">
+        <v>4289</v>
+      </c>
+      <c r="B4291">
+        <v>4517</v>
+      </c>
+      <c r="C4291">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="D4291" s="2">
+        <v>44810</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4291"/>
+  <dimension ref="A1:D4293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60461,6 +60461,34 @@
         <v>44810</v>
       </c>
     </row>
+    <row r="4292" spans="1:4">
+      <c r="A4292" s="1">
+        <v>4290</v>
+      </c>
+      <c r="B4292">
+        <v>4518</v>
+      </c>
+      <c r="C4292">
+        <v>8.27</v>
+      </c>
+      <c r="D4292" s="2">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:4">
+      <c r="A4293" s="1">
+        <v>4291</v>
+      </c>
+      <c r="B4293">
+        <v>4519</v>
+      </c>
+      <c r="C4293">
+        <v>8.26</v>
+      </c>
+      <c r="D4293" s="2">
+        <v>44812</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4293"/>
+  <dimension ref="A1:D4297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60489,6 +60489,62 @@
         <v>44812</v>
       </c>
     </row>
+    <row r="4294" spans="1:4">
+      <c r="A4294" s="1">
+        <v>4292</v>
+      </c>
+      <c r="B4294">
+        <v>4520</v>
+      </c>
+      <c r="C4294">
+        <v>8.15</v>
+      </c>
+      <c r="D4294" s="2">
+        <v>44813</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:4">
+      <c r="A4295" s="1">
+        <v>4293</v>
+      </c>
+      <c r="B4295">
+        <v>4521</v>
+      </c>
+      <c r="C4295">
+        <v>8.08</v>
+      </c>
+      <c r="D4295" s="2">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:4">
+      <c r="A4296" s="1">
+        <v>4294</v>
+      </c>
+      <c r="B4296">
+        <v>4522</v>
+      </c>
+      <c r="C4296">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="D4296" s="2">
+        <v>44817</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:4">
+      <c r="A4297" s="1">
+        <v>4295</v>
+      </c>
+      <c r="B4297">
+        <v>4523</v>
+      </c>
+      <c r="C4297">
+        <v>8.17</v>
+      </c>
+      <c r="D4297" s="2">
+        <v>44818</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4297"/>
+  <dimension ref="A1:D4299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60545,6 +60545,34 @@
         <v>44818</v>
       </c>
     </row>
+    <row r="4298" spans="1:4">
+      <c r="A4298" s="1">
+        <v>4296</v>
+      </c>
+      <c r="B4298">
+        <v>4524</v>
+      </c>
+      <c r="C4298">
+        <v>8.19</v>
+      </c>
+      <c r="D4298" s="2">
+        <v>44819</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:4">
+      <c r="A4299" s="1">
+        <v>4297</v>
+      </c>
+      <c r="B4299">
+        <v>4525</v>
+      </c>
+      <c r="C4299">
+        <v>8.19</v>
+      </c>
+      <c r="D4299" s="2">
+        <v>44820</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4299"/>
+  <dimension ref="A1:D4301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60573,6 +60573,34 @@
         <v>44820</v>
       </c>
     </row>
+    <row r="4300" spans="1:4">
+      <c r="A4300" s="1">
+        <v>4298</v>
+      </c>
+      <c r="B4300">
+        <v>4526</v>
+      </c>
+      <c r="C4300">
+        <v>8.19</v>
+      </c>
+      <c r="D4300" s="2">
+        <v>44823</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:4">
+      <c r="A4301" s="1">
+        <v>4299</v>
+      </c>
+      <c r="B4301">
+        <v>4527</v>
+      </c>
+      <c r="C4301">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="D4301" s="2">
+        <v>44824</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4301"/>
+  <dimension ref="A1:D4303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60413,7 +60413,7 @@
         <v>4514</v>
       </c>
       <c r="C4288">
-        <v>8.15</v>
+        <v>8.16</v>
       </c>
       <c r="D4288" s="2">
         <v>44805</v>
@@ -60599,6 +60599,34 @@
       </c>
       <c r="D4301" s="2">
         <v>44824</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:4">
+      <c r="A4302" s="1">
+        <v>4300</v>
+      </c>
+      <c r="B4302">
+        <v>4528</v>
+      </c>
+      <c r="C4302">
+        <v>8.24</v>
+      </c>
+      <c r="D4302" s="2">
+        <v>44825</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:4">
+      <c r="A4303" s="1">
+        <v>4301</v>
+      </c>
+      <c r="B4303">
+        <v>4529</v>
+      </c>
+      <c r="C4303">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="D4303" s="2">
+        <v>44826</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4303"/>
+  <dimension ref="A1:D4305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60629,6 +60629,34 @@
         <v>44826</v>
       </c>
     </row>
+    <row r="4304" spans="1:4">
+      <c r="A4304" s="1">
+        <v>4302</v>
+      </c>
+      <c r="B4304">
+        <v>4530</v>
+      </c>
+      <c r="C4304">
+        <v>8.35</v>
+      </c>
+      <c r="D4304" s="2">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:4">
+      <c r="A4305" s="1">
+        <v>4303</v>
+      </c>
+      <c r="B4305">
+        <v>4531</v>
+      </c>
+      <c r="C4305">
+        <v>8.48</v>
+      </c>
+      <c r="D4305" s="2">
+        <v>44830</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4305"/>
+  <dimension ref="A1:D4307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60657,6 +60657,34 @@
         <v>44830</v>
       </c>
     </row>
+    <row r="4306" spans="1:4">
+      <c r="A4306" s="1">
+        <v>4304</v>
+      </c>
+      <c r="B4306">
+        <v>4532</v>
+      </c>
+      <c r="C4306">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="D4306" s="2">
+        <v>44831</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:4">
+      <c r="A4307" s="1">
+        <v>4305</v>
+      </c>
+      <c r="B4307">
+        <v>4533</v>
+      </c>
+      <c r="C4307">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="D4307" s="2">
+        <v>44832</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4307"/>
+  <dimension ref="A1:D4308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60685,6 +60685,20 @@
         <v>44832</v>
       </c>
     </row>
+    <row r="4308" spans="1:4">
+      <c r="A4308" s="1">
+        <v>4306</v>
+      </c>
+      <c r="B4308">
+        <v>4534</v>
+      </c>
+      <c r="C4308">
+        <v>8.76</v>
+      </c>
+      <c r="D4308" s="2">
+        <v>44833</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4308"/>
+  <dimension ref="A1:D4311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60699,6 +60699,48 @@
         <v>44833</v>
       </c>
     </row>
+    <row r="4309" spans="1:4">
+      <c r="A4309" s="1">
+        <v>4307</v>
+      </c>
+      <c r="B4309">
+        <v>4535</v>
+      </c>
+      <c r="C4309">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D4309" s="2">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:4">
+      <c r="A4310" s="1">
+        <v>4308</v>
+      </c>
+      <c r="B4310">
+        <v>4536</v>
+      </c>
+      <c r="C4310">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D4310" s="2">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:4">
+      <c r="A4311" s="1">
+        <v>4309</v>
+      </c>
+      <c r="B4311">
+        <v>4537</v>
+      </c>
+      <c r="C4311">
+        <v>8.68</v>
+      </c>
+      <c r="D4311" s="2">
+        <v>44838</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4311"/>
+  <dimension ref="A1:D4312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60741,6 +60741,20 @@
         <v>44838</v>
       </c>
     </row>
+    <row r="4312" spans="1:4">
+      <c r="A4312" s="1">
+        <v>4310</v>
+      </c>
+      <c r="B4312">
+        <v>4539</v>
+      </c>
+      <c r="C4312">
+        <v>8.68</v>
+      </c>
+      <c r="D4312" s="2">
+        <v>44840</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4312"/>
+  <dimension ref="A1:D4320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60755,6 +60755,118 @@
         <v>44840</v>
       </c>
     </row>
+    <row r="4313" spans="1:4">
+      <c r="A4313" s="1">
+        <v>4311</v>
+      </c>
+      <c r="B4313">
+        <v>4540</v>
+      </c>
+      <c r="C4313">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="D4313" s="2">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:4">
+      <c r="A4314" s="1">
+        <v>4312</v>
+      </c>
+      <c r="B4314">
+        <v>4541</v>
+      </c>
+      <c r="C4314">
+        <v>8.66</v>
+      </c>
+      <c r="D4314" s="2">
+        <v>44844</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:4">
+      <c r="A4315" s="1">
+        <v>4313</v>
+      </c>
+      <c r="B4315">
+        <v>4542</v>
+      </c>
+      <c r="C4315">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="D4315" s="2">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:4">
+      <c r="A4316" s="1">
+        <v>4314</v>
+      </c>
+      <c r="B4316">
+        <v>4543</v>
+      </c>
+      <c r="C4316">
+        <v>8.77</v>
+      </c>
+      <c r="D4316" s="2">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:4">
+      <c r="A4317" s="1">
+        <v>4315</v>
+      </c>
+      <c r="B4317">
+        <v>4544</v>
+      </c>
+      <c r="C4317">
+        <v>8.76</v>
+      </c>
+      <c r="D4317" s="2">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:4">
+      <c r="A4318" s="1">
+        <v>4316</v>
+      </c>
+      <c r="B4318">
+        <v>4545</v>
+      </c>
+      <c r="C4318">
+        <v>8.77</v>
+      </c>
+      <c r="D4318" s="2">
+        <v>44848</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:4">
+      <c r="A4319" s="1">
+        <v>4317</v>
+      </c>
+      <c r="B4319">
+        <v>4546</v>
+      </c>
+      <c r="C4319">
+        <v>8.69</v>
+      </c>
+      <c r="D4319" s="2">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:4">
+      <c r="A4320" s="1">
+        <v>4318</v>
+      </c>
+      <c r="B4320">
+        <v>4547</v>
+      </c>
+      <c r="C4320">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="D4320" s="2">
+        <v>44852</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4320"/>
+  <dimension ref="A1:D4322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60867,6 +60867,34 @@
         <v>44852</v>
       </c>
     </row>
+    <row r="4321" spans="1:4">
+      <c r="A4321" s="1">
+        <v>4319</v>
+      </c>
+      <c r="B4321">
+        <v>4548</v>
+      </c>
+      <c r="C4321">
+        <v>8.65</v>
+      </c>
+      <c r="D4321" s="2">
+        <v>44853</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:4">
+      <c r="A4322" s="1">
+        <v>4320</v>
+      </c>
+      <c r="B4322">
+        <v>4549</v>
+      </c>
+      <c r="C4322">
+        <v>8.67</v>
+      </c>
+      <c r="D4322" s="2">
+        <v>44854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4322"/>
+  <dimension ref="A1:D4325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60895,6 +60895,48 @@
         <v>44854</v>
       </c>
     </row>
+    <row r="4323" spans="1:4">
+      <c r="A4323" s="1">
+        <v>4321</v>
+      </c>
+      <c r="B4323">
+        <v>4550</v>
+      </c>
+      <c r="C4323">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="D4323" s="2">
+        <v>44855</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:4">
+      <c r="A4324" s="1">
+        <v>4322</v>
+      </c>
+      <c r="B4324">
+        <v>4551</v>
+      </c>
+      <c r="C4324">
+        <v>8.68</v>
+      </c>
+      <c r="D4324" s="2">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:4">
+      <c r="A4325" s="1">
+        <v>4323</v>
+      </c>
+      <c r="B4325">
+        <v>4552</v>
+      </c>
+      <c r="C4325">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="D4325" s="2">
+        <v>44859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4325"/>
+  <dimension ref="A1:D4326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60931,10 +60931,24 @@
         <v>4552</v>
       </c>
       <c r="C4325">
-        <v>8.630000000000001</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="D4325" s="2">
         <v>44859</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:4">
+      <c r="A4326" s="1">
+        <v>4324</v>
+      </c>
+      <c r="B4326">
+        <v>4553</v>
+      </c>
+      <c r="C4326">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="D4326" s="2">
+        <v>44860</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4326"/>
+  <dimension ref="A1:D4328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60951,6 +60951,34 @@
         <v>44860</v>
       </c>
     </row>
+    <row r="4327" spans="1:4">
+      <c r="A4327" s="1">
+        <v>4325</v>
+      </c>
+      <c r="B4327">
+        <v>4554</v>
+      </c>
+      <c r="C4327">
+        <v>8.49</v>
+      </c>
+      <c r="D4327" s="2">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:4">
+      <c r="A4328" s="1">
+        <v>4326</v>
+      </c>
+      <c r="B4328">
+        <v>4555</v>
+      </c>
+      <c r="C4328">
+        <v>8.51</v>
+      </c>
+      <c r="D4328" s="2">
+        <v>44862</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4328"/>
+  <dimension ref="A1:D4329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60979,6 +60979,20 @@
         <v>44862</v>
       </c>
     </row>
+    <row r="4329" spans="1:4">
+      <c r="A4329" s="1">
+        <v>4327</v>
+      </c>
+      <c r="B4329">
+        <v>4556</v>
+      </c>
+      <c r="C4329">
+        <v>8.41</v>
+      </c>
+      <c r="D4329" s="2">
+        <v>44865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4329"/>
+  <dimension ref="A1:D4332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60993,6 +60993,48 @@
         <v>44865</v>
       </c>
     </row>
+    <row r="4330" spans="1:4">
+      <c r="A4330" s="1">
+        <v>4328</v>
+      </c>
+      <c r="B4330">
+        <v>4558</v>
+      </c>
+      <c r="C4330">
+        <v>8.23</v>
+      </c>
+      <c r="D4330" s="2">
+        <v>44867</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:4">
+      <c r="A4331" s="1">
+        <v>4329</v>
+      </c>
+      <c r="B4331">
+        <v>4559</v>
+      </c>
+      <c r="C4331">
+        <v>8.24</v>
+      </c>
+      <c r="D4331" s="2">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:4">
+      <c r="A4332" s="1">
+        <v>4330</v>
+      </c>
+      <c r="B4332">
+        <v>4560</v>
+      </c>
+      <c r="C4332">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="D4332" s="2">
+        <v>44869</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4332"/>
+  <dimension ref="A1:D4334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61035,6 +61035,34 @@
         <v>44869</v>
       </c>
     </row>
+    <row r="4333" spans="1:4">
+      <c r="A4333" s="1">
+        <v>4331</v>
+      </c>
+      <c r="B4333">
+        <v>4561</v>
+      </c>
+      <c r="C4333">
+        <v>7.94</v>
+      </c>
+      <c r="D4333" s="2">
+        <v>44872</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:4">
+      <c r="A4334" s="1">
+        <v>4332</v>
+      </c>
+      <c r="B4334">
+        <v>4562</v>
+      </c>
+      <c r="C4334">
+        <v>7.74</v>
+      </c>
+      <c r="D4334" s="2">
+        <v>44873</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4334"/>
+  <dimension ref="A1:D4335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61063,6 +61063,20 @@
         <v>44873</v>
       </c>
     </row>
+    <row r="4335" spans="1:4">
+      <c r="A4335" s="1">
+        <v>4333</v>
+      </c>
+      <c r="B4335">
+        <v>4563</v>
+      </c>
+      <c r="C4335">
+        <v>7.71</v>
+      </c>
+      <c r="D4335" s="2">
+        <v>44874</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4335"/>
+  <dimension ref="A1:D4339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61077,6 +61077,62 @@
         <v>44874</v>
       </c>
     </row>
+    <row r="4336" spans="1:4">
+      <c r="A4336" s="1">
+        <v>4334</v>
+      </c>
+      <c r="B4336">
+        <v>4564</v>
+      </c>
+      <c r="C4336">
+        <v>7.53</v>
+      </c>
+      <c r="D4336" s="2">
+        <v>44875</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:4">
+      <c r="A4337" s="1">
+        <v>4335</v>
+      </c>
+      <c r="B4337">
+        <v>4565</v>
+      </c>
+      <c r="C4337">
+        <v>7.62</v>
+      </c>
+      <c r="D4337" s="2">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:4">
+      <c r="A4338" s="1">
+        <v>4336</v>
+      </c>
+      <c r="B4338">
+        <v>4566</v>
+      </c>
+      <c r="C4338">
+        <v>7.73</v>
+      </c>
+      <c r="D4338" s="2">
+        <v>44879</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:4">
+      <c r="A4339" s="1">
+        <v>4337</v>
+      </c>
+      <c r="B4339">
+        <v>4567</v>
+      </c>
+      <c r="C4339">
+        <v>7.87</v>
+      </c>
+      <c r="D4339" s="2">
+        <v>44880</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4339"/>
+  <dimension ref="A1:D4340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61133,6 +61133,20 @@
         <v>44880</v>
       </c>
     </row>
+    <row r="4340" spans="1:4">
+      <c r="A4340" s="1">
+        <v>4338</v>
+      </c>
+      <c r="B4340">
+        <v>4568</v>
+      </c>
+      <c r="C4340">
+        <v>7.94</v>
+      </c>
+      <c r="D4340" s="2">
+        <v>44881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4340"/>
+  <dimension ref="A1:D4341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61147,6 +61147,20 @@
         <v>44881</v>
       </c>
     </row>
+    <row r="4341" spans="1:4">
+      <c r="A4341" s="1">
+        <v>4339</v>
+      </c>
+      <c r="B4341">
+        <v>4569</v>
+      </c>
+      <c r="C4341">
+        <v>8</v>
+      </c>
+      <c r="D4341" s="2">
+        <v>44882</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4341"/>
+  <dimension ref="A1:D4343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61161,6 +61161,34 @@
         <v>44882</v>
       </c>
     </row>
+    <row r="4342" spans="1:4">
+      <c r="A4342" s="1">
+        <v>4340</v>
+      </c>
+      <c r="B4342">
+        <v>4570</v>
+      </c>
+      <c r="C4342">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="D4342" s="2">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:4">
+      <c r="A4343" s="1">
+        <v>4341</v>
+      </c>
+      <c r="B4343">
+        <v>4571</v>
+      </c>
+      <c r="C4343">
+        <v>7.95</v>
+      </c>
+      <c r="D4343" s="2">
+        <v>44886</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4343"/>
+  <dimension ref="A1:D4344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61189,6 +61189,20 @@
         <v>44886</v>
       </c>
     </row>
+    <row r="4344" spans="1:4">
+      <c r="A4344" s="1">
+        <v>4342</v>
+      </c>
+      <c r="B4344">
+        <v>4572</v>
+      </c>
+      <c r="C4344">
+        <v>7.88</v>
+      </c>
+      <c r="D4344" s="2">
+        <v>44887</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4344"/>
+  <dimension ref="A1:D4345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61203,6 +61203,20 @@
         <v>44887</v>
       </c>
     </row>
+    <row r="4345" spans="1:4">
+      <c r="A4345" s="1">
+        <v>4343</v>
+      </c>
+      <c r="B4345">
+        <v>4573</v>
+      </c>
+      <c r="C4345">
+        <v>7.89</v>
+      </c>
+      <c r="D4345" s="2">
+        <v>44888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4345"/>
+  <dimension ref="A1:D4347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61217,6 +61217,34 @@
         <v>44888</v>
       </c>
     </row>
+    <row r="4346" spans="1:4">
+      <c r="A4346" s="1">
+        <v>4344</v>
+      </c>
+      <c r="B4346">
+        <v>4574</v>
+      </c>
+      <c r="C4346">
+        <v>7.8</v>
+      </c>
+      <c r="D4346" s="2">
+        <v>44889</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:4">
+      <c r="A4347" s="1">
+        <v>4345</v>
+      </c>
+      <c r="B4347">
+        <v>4575</v>
+      </c>
+      <c r="C4347">
+        <v>7.8</v>
+      </c>
+      <c r="D4347" s="2">
+        <v>44890</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4347"/>
+  <dimension ref="A1:D4349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61245,6 +61245,34 @@
         <v>44890</v>
       </c>
     </row>
+    <row r="4348" spans="1:4">
+      <c r="A4348" s="1">
+        <v>4346</v>
+      </c>
+      <c r="B4348">
+        <v>4576</v>
+      </c>
+      <c r="C4348">
+        <v>7.77</v>
+      </c>
+      <c r="D4348" s="2">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:4">
+      <c r="A4349" s="1">
+        <v>4347</v>
+      </c>
+      <c r="B4349">
+        <v>4577</v>
+      </c>
+      <c r="C4349">
+        <v>7.73</v>
+      </c>
+      <c r="D4349" s="2">
+        <v>44894</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4349"/>
+  <dimension ref="A1:D4350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61273,6 +61273,20 @@
         <v>44894</v>
       </c>
     </row>
+    <row r="4350" spans="1:4">
+      <c r="A4350" s="1">
+        <v>4348</v>
+      </c>
+      <c r="B4350">
+        <v>4578</v>
+      </c>
+      <c r="C4350">
+        <v>7.63</v>
+      </c>
+      <c r="D4350" s="2">
+        <v>44895</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4350"/>
+  <dimension ref="A1:D4352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61287,6 +61287,34 @@
         <v>44895</v>
       </c>
     </row>
+    <row r="4351" spans="1:4">
+      <c r="A4351" s="1">
+        <v>4349</v>
+      </c>
+      <c r="B4351">
+        <v>4579</v>
+      </c>
+      <c r="C4351">
+        <v>7.6</v>
+      </c>
+      <c r="D4351" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:4">
+      <c r="A4352" s="1">
+        <v>4350</v>
+      </c>
+      <c r="B4352">
+        <v>4580</v>
+      </c>
+      <c r="C4352">
+        <v>7.64</v>
+      </c>
+      <c r="D4352" s="2">
+        <v>44897</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4352"/>
+  <dimension ref="A1:D4353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61315,6 +61315,20 @@
         <v>44897</v>
       </c>
     </row>
+    <row r="4353" spans="1:4">
+      <c r="A4353" s="1">
+        <v>4351</v>
+      </c>
+      <c r="B4353">
+        <v>4581</v>
+      </c>
+      <c r="C4353">
+        <v>7.66</v>
+      </c>
+      <c r="D4353" s="2">
+        <v>44900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4353"/>
+  <dimension ref="A1:D4354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61329,6 +61329,20 @@
         <v>44900</v>
       </c>
     </row>
+    <row r="4354" spans="1:4">
+      <c r="A4354" s="1">
+        <v>4352</v>
+      </c>
+      <c r="B4354">
+        <v>4582</v>
+      </c>
+      <c r="C4354">
+        <v>7.6</v>
+      </c>
+      <c r="D4354" s="2">
+        <v>44901</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4354"/>
+  <dimension ref="A1:D4355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61343,6 +61343,20 @@
         <v>44901</v>
       </c>
     </row>
+    <row r="4355" spans="1:4">
+      <c r="A4355" s="1">
+        <v>4353</v>
+      </c>
+      <c r="B4355">
+        <v>4583</v>
+      </c>
+      <c r="C4355">
+        <v>7.8</v>
+      </c>
+      <c r="D4355" s="2">
+        <v>44902</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4355"/>
+  <dimension ref="A1:D4357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61357,6 +61357,34 @@
         <v>44902</v>
       </c>
     </row>
+    <row r="4356" spans="1:4">
+      <c r="A4356" s="1">
+        <v>4354</v>
+      </c>
+      <c r="B4356">
+        <v>4587</v>
+      </c>
+      <c r="C4356">
+        <v>7.72</v>
+      </c>
+      <c r="D4356" s="2">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:4">
+      <c r="A4357" s="1">
+        <v>4355</v>
+      </c>
+      <c r="B4357">
+        <v>4588</v>
+      </c>
+      <c r="C4357">
+        <v>7.79</v>
+      </c>
+      <c r="D4357" s="2">
+        <v>44909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4357"/>
+  <dimension ref="A1:D4359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61385,6 +61385,34 @@
         <v>44909</v>
       </c>
     </row>
+    <row r="4358" spans="1:4">
+      <c r="A4358" s="1">
+        <v>4356</v>
+      </c>
+      <c r="B4358">
+        <v>4589</v>
+      </c>
+      <c r="C4358">
+        <v>7.82</v>
+      </c>
+      <c r="D4358" s="2">
+        <v>44910</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:4">
+      <c r="A4359" s="1">
+        <v>4357</v>
+      </c>
+      <c r="B4359">
+        <v>4590</v>
+      </c>
+      <c r="C4359">
+        <v>7.96</v>
+      </c>
+      <c r="D4359" s="2">
+        <v>44911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4359"/>
+  <dimension ref="A1:D4361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61413,6 +61413,34 @@
         <v>44911</v>
       </c>
     </row>
+    <row r="4360" spans="1:4">
+      <c r="A4360" s="1">
+        <v>4358</v>
+      </c>
+      <c r="B4360">
+        <v>4591</v>
+      </c>
+      <c r="C4360">
+        <v>8.07</v>
+      </c>
+      <c r="D4360" s="2">
+        <v>44914</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:4">
+      <c r="A4361" s="1">
+        <v>4359</v>
+      </c>
+      <c r="B4361">
+        <v>4592</v>
+      </c>
+      <c r="C4361">
+        <v>8.06</v>
+      </c>
+      <c r="D4361" s="2">
+        <v>44915</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4361"/>
+  <dimension ref="A1:D4362"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61441,6 +61441,20 @@
         <v>44915</v>
       </c>
     </row>
+    <row r="4362" spans="1:4">
+      <c r="A4362" s="1">
+        <v>4360</v>
+      </c>
+      <c r="B4362">
+        <v>4593</v>
+      </c>
+      <c r="C4362">
+        <v>8</v>
+      </c>
+      <c r="D4362" s="2">
+        <v>44916</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4362"/>
+  <dimension ref="A1:D4364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61455,6 +61455,34 @@
         <v>44916</v>
       </c>
     </row>
+    <row r="4363" spans="1:4">
+      <c r="A4363" s="1">
+        <v>4361</v>
+      </c>
+      <c r="B4363">
+        <v>4594</v>
+      </c>
+      <c r="C4363">
+        <v>7.97</v>
+      </c>
+      <c r="D4363" s="2">
+        <v>44917</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:4">
+      <c r="A4364" s="1">
+        <v>4362</v>
+      </c>
+      <c r="B4364">
+        <v>4595</v>
+      </c>
+      <c r="C4364">
+        <v>7.97</v>
+      </c>
+      <c r="D4364" s="2">
+        <v>44918</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4364"/>
+  <dimension ref="A1:D4368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61483,6 +61483,62 @@
         <v>44918</v>
       </c>
     </row>
+    <row r="4365" spans="1:4">
+      <c r="A4365" s="1">
+        <v>4363</v>
+      </c>
+      <c r="B4365">
+        <v>4596</v>
+      </c>
+      <c r="C4365">
+        <v>7.94</v>
+      </c>
+      <c r="D4365" s="2">
+        <v>44921</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:4">
+      <c r="A4366" s="1">
+        <v>4364</v>
+      </c>
+      <c r="B4366">
+        <v>4597</v>
+      </c>
+      <c r="C4366">
+        <v>7.93</v>
+      </c>
+      <c r="D4366" s="2">
+        <v>44922</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:4">
+      <c r="A4367" s="1">
+        <v>4365</v>
+      </c>
+      <c r="B4367">
+        <v>4598</v>
+      </c>
+      <c r="C4367">
+        <v>7.97</v>
+      </c>
+      <c r="D4367" s="2">
+        <v>44923</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:4">
+      <c r="A4368" s="1">
+        <v>4366</v>
+      </c>
+      <c r="B4368">
+        <v>4599</v>
+      </c>
+      <c r="C4368">
+        <v>7.99</v>
+      </c>
+      <c r="D4368" s="2">
+        <v>44924</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4368"/>
+  <dimension ref="A1:D4369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61539,6 +61539,20 @@
         <v>44924</v>
       </c>
     </row>
+    <row r="4369" spans="1:4">
+      <c r="A4369" s="1">
+        <v>4367</v>
+      </c>
+      <c r="B4369">
+        <v>4600</v>
+      </c>
+      <c r="C4369">
+        <v>7.98</v>
+      </c>
+      <c r="D4369" s="2">
+        <v>44925</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4369"/>
+  <dimension ref="A1:D4370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61533,7 +61533,7 @@
         <v>4599</v>
       </c>
       <c r="C4368">
-        <v>7.99</v>
+        <v>7.98</v>
       </c>
       <c r="D4368" s="2">
         <v>44924</v>
@@ -61551,6 +61551,20 @@
       </c>
       <c r="D4369" s="2">
         <v>44925</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:4">
+      <c r="A4370" s="1">
+        <v>4368</v>
+      </c>
+      <c r="B4370">
+        <v>4602</v>
+      </c>
+      <c r="C4370">
+        <v>8.01</v>
+      </c>
+      <c r="D4370" s="2">
+        <v>44929</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/pen_10y_bond.xlsx
+++ b/mercados/pen_10y_bond.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4370"/>
+  <dimension ref="A1:D4491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -61567,6 +61567,1700 @@
         <v>44929</v>
       </c>
     </row>
+    <row r="4371" spans="1:4">
+      <c r="A4371" s="1">
+        <v>4369</v>
+      </c>
+      <c r="B4371">
+        <v>4603</v>
+      </c>
+      <c r="C4371">
+        <v>8</v>
+      </c>
+      <c r="D4371" s="2">
+        <v>44930</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:4">
+      <c r="A4372" s="1">
+        <v>4370</v>
+      </c>
+      <c r="B4372">
+        <v>4604</v>
+      </c>
+      <c r="C4372">
+        <v>7.99</v>
+      </c>
+      <c r="D4372" s="2">
+        <v>44931</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:4">
+      <c r="A4373" s="1">
+        <v>4371</v>
+      </c>
+      <c r="B4373">
+        <v>4605</v>
+      </c>
+      <c r="C4373">
+        <v>7.91</v>
+      </c>
+      <c r="D4373" s="2">
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:4">
+      <c r="A4374" s="1">
+        <v>4372</v>
+      </c>
+      <c r="B4374">
+        <v>4606</v>
+      </c>
+      <c r="C4374">
+        <v>7.67</v>
+      </c>
+      <c r="D4374" s="2">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:4">
+      <c r="A4375" s="1">
+        <v>4373</v>
+      </c>
+      <c r="B4375">
+        <v>4607</v>
+      </c>
+      <c r="C4375">
+        <v>7.78</v>
+      </c>
+      <c r="D4375" s="2">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:4">
+      <c r="A4376" s="1">
+        <v>4374</v>
+      </c>
+      <c r="B4376">
+        <v>4608</v>
+      </c>
+      <c r="C4376">
+        <v>7.78</v>
+      </c>
+      <c r="D4376" s="2">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:4">
+      <c r="A4377" s="1">
+        <v>4375</v>
+      </c>
+      <c r="B4377">
+        <v>4609</v>
+      </c>
+      <c r="C4377">
+        <v>7.77</v>
+      </c>
+      <c r="D4377" s="2">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:4">
+      <c r="A4378" s="1">
+        <v>4376</v>
+      </c>
+      <c r="B4378">
+        <v>4610</v>
+      </c>
+      <c r="C4378">
+        <v>7.94</v>
+      </c>
+      <c r="D4378" s="2">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:4">
+      <c r="A4379" s="1">
+        <v>4377</v>
+      </c>
+      <c r="B4379">
+        <v>4611</v>
+      </c>
+      <c r="C4379">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="D4379" s="2">
+        <v>44942</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:4">
+      <c r="A4380" s="1">
+        <v>4378</v>
+      </c>
+      <c r="B4380">
+        <v>4612</v>
+      </c>
+      <c r="C4380">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="D4380" s="2">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:4">
+      <c r="A4381" s="1">
+        <v>4379</v>
+      </c>
+      <c r="B4381">
+        <v>4613</v>
+      </c>
+      <c r="C4381">
+        <v>8</v>
+      </c>
+      <c r="D4381" s="2">
+        <v>44944</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:4">
+      <c r="A4382" s="1">
+        <v>4380</v>
+      </c>
+      <c r="B4382">
+        <v>4614</v>
+      </c>
+      <c r="C4382">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="D4382" s="2">
+        <v>44945</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:4">
+      <c r="A4383" s="1">
+        <v>4381</v>
+      </c>
+      <c r="B4383">
+        <v>4615</v>
+      </c>
+      <c r="C4383">
+        <v>7.98</v>
+      </c>
+      <c r="D4383" s="2">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:4">
+      <c r="A4384" s="1">
+        <v>4382</v>
+      </c>
+      <c r="B4384">
+        <v>4616</v>
+      </c>
+      <c r="C4384">
+        <v>7.96</v>
+      </c>
+      <c r="D4384" s="2">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:4">
+      <c r="A4385" s="1">
+        <v>4383</v>
+      </c>
+      <c r="B4385">
+        <v>4617</v>
+      </c>
+      <c r="C4385">
+        <v>8.09</v>
+      </c>
+      <c r="D4385" s="2">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:4">
+      <c r="A4386" s="1">
+        <v>4384</v>
+      </c>
+      <c r="B4386">
+        <v>4621</v>
+      </c>
+      <c r="C4386">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="D4386" s="2">
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:4">
+      <c r="A4387" s="1">
+        <v>4385</v>
+      </c>
+      <c r="B4387">
+        <v>4622</v>
+      </c>
+      <c r="C4387">
+        <v>8.09</v>
+      </c>
+      <c r="D4387" s="2">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:4">
+      <c r="A4388" s="1">
+        <v>4386</v>
+      </c>
+      <c r="B4388">
+        <v>4623</v>
+      </c>
+      <c r="C4388">
+        <v>7.95</v>
+      </c>
+      <c r="D4388" s="2">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:4">
+      <c r="A4389" s="1">
+        <v>4387</v>
+      </c>
+      <c r="B4389">
+        <v>4624</v>
+      </c>
+      <c r="C4389">
+        <v>7.8</v>
+      </c>
+      <c r="D4389" s="2">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:4">
+      <c r="A4390" s="1">
+        <v>4388</v>
+      </c>
+      <c r="B4390">
+        <v>4625</v>
+      </c>
+      <c r="C4390">
+        <v>7.8</v>
+      </c>
+      <c r="D4390" s="2">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:4">
+      <c r="A4391" s="1">
+        <v>4389</v>
+      </c>
+      <c r="B4391">
+        <v>4626</v>
+      </c>
+      <c r="C4391">
+        <v>7.84</v>
+      </c>
+      <c r="D4391" s="2">
+        <v>44963</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:4">
+      <c r="A4392" s="1">
+        <v>4390</v>
+      </c>
+      <c r="B4392">
+        <v>4627</v>
+      </c>
+      <c r="C4392">
+        <v>7.84</v>
+      </c>
+      <c r="D4392" s="2">
+        <v>44964</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:4">
+      <c r="A4393" s="1">
+        <v>4391</v>
+      </c>
+      <c r="B4393">
+        <v>4628</v>
+      </c>
+      <c r="C4393">
+        <v>7.88</v>
+      </c>
+      <c r="D4393" s="2">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:4">
+      <c r="A4394" s="1">
+        <v>4392</v>
+      </c>
+      <c r="B4394">
+        <v>4629</v>
+      </c>
+      <c r="C4394">
+        <v>7.87</v>
+      </c>
+      <c r="D4394" s="2">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:4">
+      <c r="A4395" s="1">
+        <v>4393</v>
+      </c>
+      <c r="B4395">
+        <v>4630</v>
+      </c>
+      <c r="C4395">
+        <v>7.77</v>
+      </c>
+      <c r="D4395" s="2">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:4">
+      <c r="A4396" s="1">
+        <v>4394</v>
+      </c>
+      <c r="B4396">
+        <v>4633</v>
+      </c>
+      <c r="C4396">
+        <v>7.88</v>
+      </c>
+      <c r="D4396" s="2">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:4">
+      <c r="A4397" s="1">
+        <v>4395</v>
+      </c>
+      <c r="B4397">
+        <v>4634</v>
+      </c>
+      <c r="C4397">
+        <v>7.94</v>
+      </c>
+      <c r="D4397" s="2">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:4">
+      <c r="A4398" s="1">
+        <v>4396</v>
+      </c>
+      <c r="B4398">
+        <v>4635</v>
+      </c>
+      <c r="C4398">
+        <v>7.86</v>
+      </c>
+      <c r="D4398" s="2">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:4">
+      <c r="A4399" s="1">
+        <v>4397</v>
+      </c>
+      <c r="B4399">
+        <v>4637</v>
+      </c>
+      <c r="C4399">
+        <v>7.88</v>
+      </c>
+      <c r="D4399" s="2">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:4">
+      <c r="A4400" s="1">
+        <v>4398</v>
+      </c>
+      <c r="B4400">
+        <v>4638</v>
+      </c>
+      <c r="C4400">
+        <v>7.83</v>
+      </c>
+      <c r="D4400" s="2">
+        <v>44979</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:4">
+      <c r="A4401" s="1">
+        <v>4399</v>
+      </c>
+      <c r="B4401">
+        <v>4639</v>
+      </c>
+      <c r="C4401">
+        <v>7.86</v>
+      </c>
+      <c r="D4401" s="2">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:4">
+      <c r="A4402" s="1">
+        <v>4400</v>
+      </c>
+      <c r="B4402">
+        <v>4640</v>
+      </c>
+      <c r="C4402">
+        <v>8.07</v>
+      </c>
+      <c r="D4402" s="2">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:4">
+      <c r="A4403" s="1">
+        <v>4401</v>
+      </c>
+      <c r="B4403">
+        <v>4641</v>
+      </c>
+      <c r="C4403">
+        <v>7.99</v>
+      </c>
+      <c r="D4403" s="2">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:4">
+      <c r="A4404" s="1">
+        <v>4402</v>
+      </c>
+      <c r="B4404">
+        <v>4642</v>
+      </c>
+      <c r="C4404">
+        <v>8</v>
+      </c>
+      <c r="D4404" s="2">
+        <v>44985</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:4">
+      <c r="A4405" s="1">
+        <v>4403</v>
+      </c>
+      <c r="B4405">
+        <v>4643</v>
+      </c>
+      <c r="C4405">
+        <v>7.96</v>
+      </c>
+      <c r="D4405" s="2">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:4">
+      <c r="A4406" s="1">
+        <v>4404</v>
+      </c>
+      <c r="B4406">
+        <v>4644</v>
+      </c>
+      <c r="C4406">
+        <v>8.07</v>
+      </c>
+      <c r="D4406" s="2">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:4">
+      <c r="A4407" s="1">
+        <v>4405</v>
+      </c>
+      <c r="B4407">
+        <v>4645</v>
+      </c>
+      <c r="C4407">
+        <v>8.07</v>
+      </c>
+      <c r="D4407" s="2">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:4">
+      <c r="A4408" s="1">
+        <v>4406</v>
+      </c>
+      <c r="B4408">
+        <v>4646</v>
+      </c>
+      <c r="C4408">
+        <v>8.07</v>
+      </c>
+      <c r="D4408" s="2">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:4">
+      <c r="A4409" s="1">
+        <v>4407</v>
+      </c>
+      <c r="B4409">
+        <v>4647</v>
+      </c>
+      <c r="C4409">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="D4409" s="2">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="4410" spans="1:4">
+      <c r="A4410" s="1">
+        <v>4408</v>
+      </c>
+      <c r="B4410">
+        <v>4648</v>
+      </c>
+      <c r="C4410">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="D4410" s="2">
+        <v>44993</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:4">
+      <c r="A4411" s="1">
+        <v>4409</v>
+      </c>
+      <c r="B4411">
+        <v>4649</v>
+      </c>
+      <c r="C4411">
+        <v>8</v>
+      </c>
+      <c r="D4411" s="2">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="4412" spans="1:4">
+      <c r="A4412" s="1">
+        <v>4410</v>
+      </c>
+      <c r="B4412">
+        <v>4650</v>
+      </c>
+      <c r="C4412">
+        <v>7.87</v>
+      </c>
+      <c r="D4412" s="2">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="4413" spans="1:4">
+      <c r="A4413" s="1">
+        <v>4411</v>
+      </c>
+      <c r="B4413">
+        <v>4651</v>
+      </c>
+      <c r="C4413">
+        <v>7.77</v>
+      </c>
+      <c r="D4413" s="2">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:4">
+      <c r="A4414" s="1">
+        <v>4412</v>
+      </c>
+      <c r="B4414">
+        <v>4652</v>
+      </c>
+      <c r="C4414">
+        <v>7.78</v>
+      </c>
+      <c r="D4414" s="2">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:4">
+      <c r="A4415" s="1">
+        <v>4413</v>
+      </c>
+      <c r="B4415">
+        <v>4653</v>
+      </c>
+      <c r="C4415">
+        <v>7.62</v>
+      </c>
+      <c r="D4415" s="2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:4">
+      <c r="A4416" s="1">
+        <v>4414</v>
+      </c>
+      <c r="B4416">
+        <v>4654</v>
+      </c>
+      <c r="C4416">
+        <v>7.7</v>
+      </c>
+      <c r="D4416" s="2">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:4">
+      <c r="A4417" s="1">
+        <v>4415</v>
+      </c>
+      <c r="B4417">
+        <v>4655</v>
+      </c>
+      <c r="C4417">
+        <v>7.57</v>
+      </c>
+      <c r="D4417" s="2">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:4">
+      <c r="A4418" s="1">
+        <v>4416</v>
+      </c>
+      <c r="B4418">
+        <v>4656</v>
+      </c>
+      <c r="C4418">
+        <v>7.55</v>
+      </c>
+      <c r="D4418" s="2">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:4">
+      <c r="A4419" s="1">
+        <v>4417</v>
+      </c>
+      <c r="B4419">
+        <v>4657</v>
+      </c>
+      <c r="C4419">
+        <v>7.57</v>
+      </c>
+      <c r="D4419" s="2">
+        <v>45006</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:4">
+      <c r="A4420" s="1">
+        <v>4418</v>
+      </c>
+      <c r="B4420">
+        <v>4658</v>
+      </c>
+      <c r="C4420">
+        <v>7.55</v>
+      </c>
+      <c r="D4420" s="2">
+        <v>45007</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:4">
+      <c r="A4421" s="1">
+        <v>4419</v>
+      </c>
+      <c r="B4421">
+        <v>4659</v>
+      </c>
+      <c r="C4421">
+        <v>7.42</v>
+      </c>
+      <c r="D4421" s="2">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:4">
+      <c r="A4422" s="1">
+        <v>4420</v>
+      </c>
+      <c r="B4422">
+        <v>4660</v>
+      </c>
+      <c r="C4422">
+        <v>7.42</v>
+      </c>
+      <c r="D4422" s="2">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:4">
+      <c r="A4423" s="1">
+        <v>4421</v>
+      </c>
+      <c r="B4423">
+        <v>4661</v>
+      </c>
+      <c r="C4423">
+        <v>7.47</v>
+      </c>
+      <c r="D4423" s="2">
+        <v>45012</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:4">
+      <c r="A4424" s="1">
+        <v>4422</v>
+      </c>
+      <c r="B4424">
+        <v>4662</v>
+      </c>
+      <c r="C4424">
+        <v>7.47</v>
+      </c>
+      <c r="D4424" s="2">
+        <v>45013</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:4">
+      <c r="A4425" s="1">
+        <v>4423</v>
+      </c>
+      <c r="B4425">
+        <v>4663</v>
+      </c>
+      <c r="C4425">
+        <v>7.48</v>
+      </c>
+      <c r="D4425" s="2">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:4">
+      <c r="A4426" s="1">
+        <v>4424</v>
+      </c>
+      <c r="B4426">
+        <v>4664</v>
+      </c>
+      <c r="C4426">
+        <v>7.46</v>
+      </c>
+      <c r="D4426" s="2">
+        <v>45015</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:4">
+      <c r="A4427" s="1">
+        <v>4425</v>
+      </c>
+      <c r="B4427">
+        <v>4665</v>
+      </c>
+      <c r="C4427">
+        <v>7.51</v>
+      </c>
+      <c r="D4427" s="2">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:4">
+      <c r="A4428" s="1">
+        <v>4426</v>
+      </c>
+      <c r="B4428">
+        <v>4666</v>
+      </c>
+      <c r="C4428">
+        <v>7.53</v>
+      </c>
+      <c r="D4428" s="2">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:4">
+      <c r="A4429" s="1">
+        <v>4427</v>
+      </c>
+      <c r="B4429">
+        <v>4667</v>
+      </c>
+      <c r="C4429">
+        <v>7.48</v>
+      </c>
+      <c r="D4429" s="2">
+        <v>45020</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:4">
+      <c r="A4430" s="1">
+        <v>4428</v>
+      </c>
+      <c r="B4430">
+        <v>4668</v>
+      </c>
+      <c r="C4430">
+        <v>7.45</v>
+      </c>
+      <c r="D4430" s="2">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:4">
+      <c r="A4431" s="1">
+        <v>4429</v>
+      </c>
+      <c r="B4431">
+        <v>4671</v>
+      </c>
+      <c r="C4431">
+        <v>7.5</v>
+      </c>
+      <c r="D4431" s="2">
+        <v>45026</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:4">
+      <c r="A4432" s="1">
+        <v>4430</v>
+      </c>
+      <c r="B4432">
+        <v>4672</v>
+      </c>
+      <c r="C4432">
+        <v>7.51</v>
+      </c>
+      <c r="D4432" s="2">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:4">
+      <c r="A4433" s="1">
+        <v>4431</v>
+      </c>
+      <c r="B4433">
+        <v>4673</v>
+      </c>
+      <c r="C4433">
+        <v>7.48</v>
+      </c>
+      <c r="D4433" s="2">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:4">
+      <c r="A4434" s="1">
+        <v>4432</v>
+      </c>
+      <c r="B4434">
+        <v>4674</v>
+      </c>
+      <c r="C4434">
+        <v>7.48</v>
+      </c>
+      <c r="D4434" s="2">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:4">
+      <c r="A4435" s="1">
+        <v>4433</v>
+      </c>
+      <c r="B4435">
+        <v>4675</v>
+      </c>
+      <c r="C4435">
+        <v>7.52</v>
+      </c>
+      <c r="D4435" s="2">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:4">
+      <c r="A4436" s="1">
+        <v>4434</v>
+      </c>
+      <c r="B4436">
+        <v>4676</v>
+      </c>
+      <c r="C4436">
+        <v>7.57</v>
+      </c>
+      <c r="D4436" s="2">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:4">
+      <c r="A4437" s="1">
+        <v>4435</v>
+      </c>
+      <c r="B4437">
+        <v>4681</v>
+      </c>
+      <c r="C4437">
+        <v>7.45</v>
+      </c>
+      <c r="D4437" s="2">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:4">
+      <c r="A4438" s="1">
+        <v>4436</v>
+      </c>
+      <c r="B4438">
+        <v>4682</v>
+      </c>
+      <c r="C4438">
+        <v>7.41</v>
+      </c>
+      <c r="D4438" s="2">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="4439" spans="1:4">
+      <c r="A4439" s="1">
+        <v>4437</v>
+      </c>
+      <c r="B4439">
+        <v>4683</v>
+      </c>
+      <c r="C4439">
+        <v>7.43</v>
+      </c>
+      <c r="D4439" s="2">
+        <v>45042</v>
+      </c>
+    </row>
+    <row r="4440" spans="1:4">
+      <c r="A4440" s="1">
+        <v>4438</v>
+      </c>
+      <c r="B4440">
+        <v>4684</v>
+      </c>
+      <c r="C4440">
+        <v>7.49</v>
+      </c>
+      <c r="D4440" s="2">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="4441" spans="1:4">
+      <c r="A4441" s="1">
+        <v>4439</v>
+      </c>
+      <c r="B4441">
+        <v>4685</v>
+      </c>
+      <c r="C4441">
+        <v>7.49</v>
+      </c>
+      <c r="D4441" s="2">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="4442" spans="1:4">
+      <c r="A4442" s="1">
+        <v>4440</v>
+      </c>
+      <c r="B4442">
+        <v>4687</v>
+      </c>
+      <c r="C4442">
+        <v>7.51</v>
+      </c>
+      <c r="D4442" s="2">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="4443" spans="1:4">
+      <c r="A4443" s="1">
+        <v>4441</v>
+      </c>
+      <c r="B4443">
+        <v>4688</v>
+      </c>
+      <c r="C4443">
+        <v>7.44</v>
+      </c>
+      <c r="D4443" s="2">
+        <v>45049</v>
+      </c>
+    </row>
+    <row r="4444" spans="1:4">
+      <c r="A4444" s="1">
+        <v>4442</v>
+      </c>
+      <c r="B4444">
+        <v>4689</v>
+      </c>
+      <c r="C4444">
+        <v>7.43</v>
+      </c>
+      <c r="D4444" s="2">
+        <v>45050</v>
+      </c>
+    </row>
+    <row r="4445" spans="1:4">
+      <c r="A4445" s="1">
+        <v>4443</v>
+      </c>
+      <c r="B4445">
+        <v>4690</v>
+      </c>
+      <c r="C4445">
+        <v>7.33</v>
+      </c>
+      <c r="D4445" s="2">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="4446" spans="1:4">
+      <c r="A4446" s="1">
+        <v>4444</v>
+      </c>
+      <c r="B4446">
+        <v>4691</v>
+      </c>
+      <c r="C4446">
+        <v>7.26</v>
+      </c>
+      <c r="D4446" s="2">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="4447" spans="1:4">
+      <c r="A4447" s="1">
+        <v>4445</v>
+      </c>
+      <c r="B4447">
+        <v>4692</v>
+      </c>
+      <c r="C4447">
+        <v>7.19</v>
+      </c>
+      <c r="D4447" s="2">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="4448" spans="1:4">
+      <c r="A4448" s="1">
+        <v>4446</v>
+      </c>
+      <c r="B4448">
+        <v>4693</v>
+      </c>
+      <c r="C4448">
+        <v>7.14</v>
+      </c>
+      <c r="D4448" s="2">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="4449" spans="1:4">
+      <c r="A4449" s="1">
+        <v>4447</v>
+      </c>
+      <c r="B4449">
+        <v>4694</v>
+      </c>
+      <c r="C4449">
+        <v>7.19</v>
+      </c>
+      <c r="D4449" s="2">
+        <v>45057</v>
+      </c>
+    </row>
+    <row r="4450" spans="1:4">
+      <c r="A4450" s="1">
+        <v>4448</v>
+      </c>
+      <c r="B4450">
+        <v>4695</v>
+      </c>
+      <c r="C4450">
+        <v>7.19</v>
+      </c>
+      <c r="D4450" s="2">
+        <v>45058</v>
+      </c>
+    </row>
+    <row r="4451" spans="1:4">
+      <c r="A4451" s="1">
+        <v>4449</v>
+      </c>
+      <c r="B4451">
+        <v>4696</v>
+      </c>
+      <c r="C4451">
+        <v>7.11</v>
+      </c>
+      <c r="D4451" s="2">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="4452" spans="1:4">
+      <c r="A4452" s="1">
+        <v>4450</v>
+      </c>
+      <c r="B4452">
+        <v>4697</v>
+      </c>
+      <c r="C4452">
+        <v>7.24</v>
+      </c>
+      <c r="D4452" s="2">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="4453" spans="1:4">
+      <c r="A4453" s="1">
+        <v>4451</v>
+      </c>
+      <c r="B4453">
+        <v>4698</v>
+      </c>
+      <c r="C4453">
+        <v>7.27</v>
+      </c>
+      <c r="D4453" s="2">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="4454" spans="1:4">
+      <c r="A4454" s="1">
+        <v>4452</v>
+      </c>
+      <c r="B4454">
+        <v>4699</v>
+      </c>
+      <c r="C4454">
+        <v>7.31</v>
+      </c>
+      <c r="D4454" s="2">
+        <v>45064</v>
+      </c>
+    </row>
+    <row r="4455" spans="1:4">
+      <c r="A4455" s="1">
+        <v>4453</v>
+      </c>
+      <c r="B4455">
+        <v>4700</v>
+      </c>
+      <c r="C4455">
+        <v>7.41</v>
+      </c>
+      <c r="D4455" s="2">
+        <v>45065</v>
+      </c>
+    </row>
+    <row r="4456" spans="1:4">
+      <c r="A4456" s="1">
+        <v>4454</v>
+      </c>
+      <c r="B4456">
+        <v>4701</v>
+      </c>
+      <c r="C4456">
+        <v>7.44</v>
+      </c>
+      <c r="D4456" s="2">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="4457" spans="1:4">
+      <c r="A4457" s="1">
+        <v>4455</v>
+      </c>
+      <c r="B4457">
+        <v>4702</v>
+      </c>
+      <c r="C4457">
+        <v>7.35</v>
+      </c>
+      <c r="D4457" s="2">
+        <v>45069</v>
+      </c>
+    </row>
+    <row r="4458" spans="1:4">
+      <c r="A4458" s="1">
+        <v>4456</v>
+      </c>
+      <c r="B4458">
+        <v>4703</v>
+      </c>
+      <c r="C4458">
+        <v>7.33</v>
+      </c>
+      <c r="D4458" s="2">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="4459" spans="1:4">
+      <c r="A4459" s="1">
+        <v>4457</v>
+      </c>
+      <c r="B4459">
+        <v>4704</v>
+      </c>
+      <c r="C4459">
+        <v>7.29</v>
+      </c>
+      <c r="D4459" s="2">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="4460" spans="1:4">
+      <c r="A4460" s="1">
+        <v>4458</v>
+      </c>
+      <c r="B4460">
+        <v>4705</v>
+      </c>
+      <c r="C4460">
+        <v>7.21</v>
+      </c>
+      <c r="D4460" s="2">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="4461" spans="1:4">
+      <c r="A4461" s="1">
+        <v>4459</v>
+      </c>
+      <c r="B4461">
+        <v>4706</v>
+      </c>
+      <c r="C4461">
+        <v>7.21</v>
+      </c>
+      <c r="D4461" s="2">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="4462" spans="1:4">
+      <c r="A4462" s="1">
+        <v>4460</v>
+      </c>
+      <c r="B4462">
+        <v>4707</v>
+      </c>
+      <c r="C4462">
+        <v>7.15</v>
+      </c>
+      <c r="D4462" s="2">
+        <v>45076</v>
+      </c>
+    </row>
+    <row r="4463" spans="1:4">
+      <c r="A4463" s="1">
+        <v>4461</v>
+      </c>
+      <c r="B4463">
+        <v>4708</v>
+      </c>
+      <c r="C4463">
+        <v>7.05</v>
+      </c>
+      <c r="D4463" s="2">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="4464" spans="1:4">
+      <c r="A4464" s="1">
+        <v>4462</v>
+      </c>
+      <c r="B4464">
+        <v>4709</v>
+      </c>
+      <c r="C4464">
+        <v>7.23</v>
+      </c>
+      <c r="D4464" s="2">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="4465" spans="1:4">
+      <c r="A4465" s="1">
+        <v>4463</v>
+      </c>
+      <c r="B4465">
+        <v>4710</v>
+      </c>
+      <c r="C4465">
+        <v>7.27</v>
+      </c>
+      <c r="D4465" s="2">
+        <v>45079</v>
+      </c>
+    </row>
+    <row r="4466" spans="1:4">
+      <c r="A4466" s="1">
+        <v>4464</v>
+      </c>
+      <c r="B4466">
+        <v>4711</v>
+      </c>
+      <c r="C4466">
+        <v>7.29</v>
+      </c>
+      <c r="D4466" s="2">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="4467" spans="1:4">
+      <c r="A4467" s="1">
+        <v>4465</v>
+      </c>
+      <c r="B4467">
+        <v>4712</v>
+      </c>
+      <c r="C4467">
+        <v>7.29</v>
+      </c>
+      <c r="D4467" s="2">
+        <v>45083</v>
+      </c>
+    </row>
+    <row r="4468" spans="1:4">
+      <c r="A4468" s="1">
+        <v>4466</v>
+      </c>
+      <c r="B4468">
+        <v>4713</v>
+      </c>
+      <c r="C4468">
+        <v>7.31</v>
+      </c>
+      <c r="D4468" s="2">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="4469" spans="1:4">
+      <c r="A4469" s="1">
+        <v>4467</v>
+      </c>
+      <c r="B4469">
+        <v>4714</v>
+      </c>
+      <c r="C4469">
+        <v>7.22</v>
+      </c>
+      <c r="D4469" s="2">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="4470" spans="1:4">
+      <c r="A4470" s="1">
+        <v>4468</v>
+      </c>
+      <c r="B4470">
+        <v>4715</v>
+      </c>
+      <c r="C4470">
+        <v>7.16</v>
+      </c>
+      <c r="D4470" s="2">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4471" spans="1:4">
+      <c r="A4471" s="1">
+        <v>4469</v>
+      </c>
+      <c r="B4471">
+        <v>4716</v>
+      </c>
+      <c r="C4471">
+        <v>7.13</v>
+      </c>
+      <c r="D4471" s="2">
+        <v>45089</v>
+      </c>
+    </row>
+    <row r="4472" spans="1:4">
+      <c r="A4472" s="1">
+        <v>4470</v>
+      </c>
+      <c r="B4472">
+        <v>4717</v>
+      </c>
+      <c r="C4472">
+        <v>7.13</v>
+      </c>
+      <c r="D4472" s="2">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="4473" spans="1:4">
+      <c r="A4473" s="1">
+        <v>4471</v>
+      </c>
+      <c r="B4473">
+        <v>4718</v>
+      </c>
+      <c r="C4473">
+        <v>7.09</v>
+      </c>
+      <c r="D4473" s="2">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="4474" spans="1:4">
+      <c r="A4474" s="1">
+        <v>4472</v>
+      </c>
+      <c r="B4474">
+        <v>4719</v>
+      </c>
+      <c r="C4474">
+        <v>7.08</v>
+      </c>
+      <c r="D4474" s="2">
+        <v>45092</v>
+      </c>
+    </row>
+    <row r="4475" spans="1:4">
+      <c r="A4475" s="1">
+        <v>4473</v>
+      </c>
+      <c r="B4475">
+        <v>4720</v>
+      </c>
+      <c r="C4475">
+        <v>7.02</v>
+      </c>
+      <c r="D4475" s="2">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="4476" spans="1:4">
+      <c r="A4476" s="1">
+        <v>4474</v>
+      </c>
+      <c r="B4476">
+        <v>4721</v>
+      </c>
+      <c r="C4476">
+        <v>6.95</v>
+      </c>
+      <c r="D4476" s="2">
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="4477" spans="1:4">
+      <c r="A4477" s="1">
+        <v>4475</v>
+      </c>
+      <c r="B4477">
+        <v>4722</v>
+      </c>
+      <c r="C4477">
+        <v>6.93</v>
+      </c>
+      <c r="D4477" s="2">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="4478" spans="1:4">
+      <c r="A4478" s="1">
+        <v>4476</v>
+      </c>
+      <c r="B4478">
+        <v>4723</v>
+      </c>
+      <c r="C4478">
+        <v>6.92</v>
+      </c>
+      <c r="D4478" s="2">
+        <v>45098</v>
+      </c>
+    </row>
+    <row r="4479" spans="1:4">
+      <c r="A4479" s="1">
+        <v>4477</v>
+      </c>
+      <c r="B4479">
+        <v>4724</v>
+      </c>
+      <c r="C4479">
+        <v>6.96</v>
+      </c>
+      <c r="D4479" s="2">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="4480" spans="1:4">
+      <c r="A4480" s="1">
+        <v>4478</v>
+      </c>
+      <c r="B4480">
+        <v>4725</v>
+      </c>
+      <c r="C4480">
+        <v>6.95</v>
+      </c>
+      <c r="D4480" s="2">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="4481" spans="1:4">
+      <c r="A4481" s="1">
+        <v>4479</v>
+      </c>
+      <c r="B4481">
+        <v>4726</v>
+      </c>
+      <c r="C4481">
+        <v>6.95</v>
+      </c>
+      <c r="D4481" s="2">
+        <v>45103</v>
+      </c>
+    </row>
+    <row r="4482" spans="1:4">
+      <c r="A4482" s="1">
+        <v>4480</v>
+      </c>
+      <c r="B4482">
+        <v>4727</v>
+      </c>
+      <c r="C4482">
+        <v>6.94</v>
+      </c>
+      <c r="D4482" s="2">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="4483" spans="1:4">
+      <c r="A4483" s="1">
+        <v>4481</v>
+      </c>
+      <c r="B4483">
+        <v>4728</v>
+      </c>
+      <c r="C4483">
+        <v>6.88</v>
+      </c>
+      <c r="D4483" s="2">
+        <v>45105</v>
+      </c>
+    </row>
+    <row r="4484" spans="1:4">
+      <c r="A4484" s="1">
+        <v>4482</v>
+      </c>
+      <c r="B4484">
+        <v>4730</v>
+      </c>
+      <c r="C4484">
+        <v>6.85</v>
+      </c>
+      <c r="D4484" s="2">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="4485" spans="1:4">
+      <c r="A4485" s="1">
+        <v>4483</v>
+      </c>
+      <c r="B4485">
+        <v>4731</v>
+      </c>
+      <c r="C4485">
+        <v>6.66</v>
+      </c>
+      <c r="D4485" s="2">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="4486" spans="1:4">
+      <c r="A4486" s="1">
+        <v>4484</v>
+      </c>
+      <c r="B4486">
+        <v>4732</v>
+      </c>
+      <c r="C4486">
+        <v>6.6</v>
+      </c>
+      <c r="D4486" s="2">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="4487" spans="1:4">
+      <c r="A4487" s="1">
+        <v>4485</v>
+      </c>
+      <c r="B4487">
+        <v>4733</v>
+      </c>
+      <c r="C4487">
+        <v>6.66</v>
+      </c>
+      <c r="D4487" s="2">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="4488" spans="1:4">
+      <c r="A4488" s="1">
+        <v>4486</v>
+      </c>
+      <c r="B4488">
+        <v>4734</v>
+      </c>
+      <c r="C4488">
+        <v>6.79</v>
+      </c>
+      <c r="D4488" s="2">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="4489" spans="1:4">
+      <c r="A4489" s="1">
+        <v>4487</v>
+      </c>
+      <c r="B4489">
+        <v>4735</v>
+      </c>
+      <c r="C4489">
+        <v>6.78</v>
+      </c>
+      <c r="D4489" s="2">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="4490" spans="1:4">
+      <c r="A4490" s="1">
+        <v>4488</v>
+      </c>
+      <c r="B4490">
+        <v>4736</v>
+      </c>
+      <c r="C4490">
+        <v>6.8</v>
+      </c>
+      <c r="D4490" s="2">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="4491" spans="1:4">
+      <c r="A4491" s="1">
+        <v>4489</v>
+      </c>
+      <c r="B4491">
+        <v>4739</v>
+      </c>
+      <c r="C4491">
+        <v>6.67</v>
+      </c>
+      <c r="D4491" s="2">
+        <v>45120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
